--- a/MedicalLink/Templates/BC_105_TrichThuongDVNuocSoi.xlsx
+++ b/MedicalLink/Templates/BC_105_TrichThuongDVNuocSoi.xlsx
@@ -138,7 +138,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,18 +192,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -354,12 +342,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,6 +392,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -736,7 +724,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="A7:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,153 +740,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="D1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="25"/>
+      <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="33" t="e">
+      <c r="C9" s="31" t="e">
         <f>VALUE(H9)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="33" t="e">
+      <c r="D9" s="31" t="e">
         <f>VALUE(H10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>0.105</v>
       </c>
-      <c r="F9" s="21" t="e">
+      <c r="F9" s="19" t="e">
         <f>($C$9-$D$9)*0.105</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="20">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F10" s="21" t="e">
+      <c r="F10" s="19" t="e">
         <f>($C$9-$D$9)*0.045</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14">
         <f>SUM(E9:E10)</f>
@@ -916,10 +904,10 @@
         <v>Bằng chữ: &amp;=[DATA].TONGTHUCLINH_STRING</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
